--- a/output/dynamic_dataset0.xlsx
+++ b/output/dynamic_dataset0.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>the best wallet</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>total cost</t>
   </si>
   <si>
@@ -30,7 +33,7 @@
     <t>total return</t>
   </si>
   <si>
-    <t>report</t>
+    <t>reported error</t>
   </si>
   <si>
     <t>['Action-20', 'Action-19', 'Action-17', 'Action-16', 'Action-13', 'Action-11', 'Action-10', 'Action-8', 'Action-6', 'Action-5', 'Action-4']</t>
@@ -442,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,21 +467,27 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2">
-        <v>598.8</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>98.79999999999995</v>
+        <v>598.8000000000001</v>
       </c>
       <c r="E2">
+        <v>98.80000000000007</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -497,21 +506,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>114</v>
@@ -520,12 +529,12 @@
         <v>134.52</v>
       </c>
       <c r="D2">
-        <v>20.51999999999998</v>
+        <v>20.52000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -539,7 +548,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -553,7 +562,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -567,7 +576,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>38</v>
@@ -581,7 +590,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -595,7 +604,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -609,7 +618,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -618,12 +627,12 @@
         <v>28.86</v>
       </c>
       <c r="D9">
-        <v>2.860000000000003</v>
+        <v>2.859999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -637,21 +646,21 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>60</v>
       </c>
       <c r="C11">
-        <v>70.19999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="D11">
-        <v>10.19999999999999</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>70</v>
@@ -678,10 +687,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/dynamic_dataset0.xlsx
+++ b/output/dynamic_dataset0.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nidal\Desktop\P7\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
     <sheet name="choosen stocks" sheetId="2" r:id="rId2"/>
     <sheet name="report" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -93,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,11 +162,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +248,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,14 +459,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -482,10 +505,10 @@
         <v>500</v>
       </c>
       <c r="D2">
-        <v>598.8000000000001</v>
+        <v>598.80000000000007</v>
       </c>
       <c r="E2">
-        <v>98.80000000000007</v>
+        <v>98.800000000000068</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -497,14 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -518,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -526,13 +549,13 @@
         <v>114</v>
       </c>
       <c r="C2">
-        <v>134.52</v>
+        <v>134.52000000000001</v>
       </c>
       <c r="D2">
         <v>20.52000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -543,10 +566,10 @@
         <v>29.04</v>
       </c>
       <c r="D3">
-        <v>5.039999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5.0399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -554,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="D4">
-        <v>0.4800000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.48000000000000043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -568,13 +591,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="D5">
-        <v>0.6400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.64000000000000057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -588,7 +611,7 @@
         <v>8.740000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -599,10 +622,10 @@
         <v>49.14</v>
       </c>
       <c r="D7">
-        <v>7.140000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7.1400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -616,7 +639,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -630,7 +653,7 @@
         <v>2.859999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -644,7 +667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -655,10 +678,10 @@
         <v>70.2</v>
       </c>
       <c r="D11">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -678,14 +701,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
